--- a/_CIPW/CIPW/1_normalized_QAPF_plot.xlsx
+++ b/_CIPW/CIPW/1_normalized_QAPF_plot.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -19379,7 +19379,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -19939,7 +19939,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -22879,7 +22879,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -22999,7 +22999,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -24739,7 +24739,7 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -26739,7 +26739,7 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -27159,7 +27159,7 @@
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -31939,7 +31939,7 @@
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -32299,7 +32299,7 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -32399,7 +32399,7 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -32919,7 +32919,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -33139,7 +33139,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -33939,7 +33939,7 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -36339,7 +36339,7 @@
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -36919,7 +36919,7 @@
       </c>
       <c r="D1828" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -38059,7 +38059,7 @@
       </c>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -38079,7 +38079,7 @@
       </c>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -38499,7 +38499,7 @@
       </c>
       <c r="D1907" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -38919,7 +38919,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -39419,7 +39419,7 @@
       </c>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -39799,7 +39799,7 @@
       </c>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -39999,7 +39999,7 @@
       </c>
       <c r="D1982" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -40319,7 +40319,7 @@
       </c>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -40339,7 +40339,7 @@
       </c>
       <c r="D1999" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -40379,7 +40379,7 @@
       </c>
       <c r="D2001" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -41179,7 +41179,7 @@
       </c>
       <c r="D2041" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -41299,7 +41299,7 @@
       </c>
       <c r="D2047" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -41359,7 +41359,7 @@
       </c>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -41639,7 +41639,7 @@
       </c>
       <c r="D2064" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -41699,7 +41699,7 @@
       </c>
       <c r="D2067" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -41859,7 +41859,7 @@
       </c>
       <c r="D2075" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -42339,7 +42339,7 @@
       </c>
       <c r="D2099" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -42899,7 +42899,7 @@
       </c>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -43079,7 +43079,7 @@
       </c>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -43479,7 +43479,7 @@
       </c>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -43579,7 +43579,7 @@
       </c>
       <c r="D2161" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -44039,7 +44039,7 @@
       </c>
       <c r="D2184" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -44259,7 +44259,7 @@
       </c>
       <c r="D2195" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -44839,7 +44839,7 @@
       </c>
       <c r="D2224" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -44999,7 +44999,7 @@
       </c>
       <c r="D2232" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -45179,7 +45179,7 @@
       </c>
       <c r="D2241" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -45379,7 +45379,7 @@
       </c>
       <c r="D2251" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -45559,7 +45559,7 @@
       </c>
       <c r="D2260" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -45939,7 +45939,7 @@
       </c>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -46119,7 +46119,7 @@
       </c>
       <c r="D2288" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -46539,7 +46539,7 @@
       </c>
       <c r="D2309" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -46739,7 +46739,7 @@
       </c>
       <c r="D2319" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -47099,7 +47099,7 @@
       </c>
       <c r="D2337" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -47199,7 +47199,7 @@
       </c>
       <c r="D2342" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -47279,7 +47279,7 @@
       </c>
       <c r="D2346" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -47399,7 +47399,7 @@
       </c>
       <c r="D2352" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -47699,7 +47699,7 @@
       </c>
       <c r="D2367" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -48439,7 +48439,7 @@
       </c>
       <c r="D2404" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -48819,7 +48819,7 @@
       </c>
       <c r="D2423" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -48919,7 +48919,7 @@
       </c>
       <c r="D2428" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -49099,7 +49099,7 @@
       </c>
       <c r="D2437" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -49619,7 +49619,7 @@
       </c>
       <c r="D2463" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -49799,7 +49799,7 @@
       </c>
       <c r="D2472" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -50439,7 +50439,7 @@
       </c>
       <c r="D2504" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -50639,7 +50639,7 @@
       </c>
       <c r="D2514" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -50659,7 +50659,7 @@
       </c>
       <c r="D2515" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51099,7 +51099,7 @@
       </c>
       <c r="D2537" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51479,7 +51479,7 @@
       </c>
       <c r="D2556" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51519,7 +51519,7 @@
       </c>
       <c r="D2558" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51699,7 +51699,7 @@
       </c>
       <c r="D2567" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51799,7 +51799,7 @@
       </c>
       <c r="D2572" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -51959,7 +51959,7 @@
       </c>
       <c r="D2580" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52039,7 +52039,7 @@
       </c>
       <c r="D2584" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52199,7 +52199,7 @@
       </c>
       <c r="D2592" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52459,7 +52459,7 @@
       </c>
       <c r="D2605" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52639,7 +52639,7 @@
       </c>
       <c r="D2614" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52819,8 +52819,7 @@
       </c>
       <c r="D2623" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -52900,7 +52899,7 @@
       </c>
       <c r="D2627" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52920,7 +52919,7 @@
       </c>
       <c r="D2628" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -52940,7 +52939,7 @@
       </c>
       <c r="D2629" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53040,7 +53039,7 @@
       </c>
       <c r="D2634" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53060,7 +53059,7 @@
       </c>
       <c r="D2635" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53160,7 +53159,7 @@
       </c>
       <c r="D2640" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53200,7 +53199,7 @@
       </c>
       <c r="D2642" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53480,7 +53479,7 @@
       </c>
       <c r="D2656" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -53580,7 +53579,7 @@
       </c>
       <c r="D2661" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53660,7 +53659,7 @@
       </c>
       <c r="D2665" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -53920,7 +53919,7 @@
       </c>
       <c r="D2678" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54100,7 +54099,7 @@
       </c>
       <c r="D2687" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54160,7 +54159,7 @@
       </c>
       <c r="D2690" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54260,7 +54259,7 @@
       </c>
       <c r="D2695" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54400,7 +54399,7 @@
       </c>
       <c r="D2702" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54540,7 +54539,7 @@
       </c>
       <c r="D2709" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -54920,7 +54919,7 @@
       </c>
       <c r="D2728" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55020,7 +55019,7 @@
       </c>
       <c r="D2733" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55480,7 +55479,7 @@
       </c>
       <c r="D2756" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55640,7 +55639,7 @@
       </c>
       <c r="D2764" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55680,7 +55679,7 @@
       </c>
       <c r="D2766" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55860,7 +55859,7 @@
       </c>
       <c r="D2775" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -55960,7 +55959,7 @@
       </c>
       <c r="D2780" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -56260,7 +56259,7 @@
       </c>
       <c r="D2795" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -56380,7 +56379,7 @@
       </c>
       <c r="D2801" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -56520,7 +56519,7 @@
       </c>
       <c r="D2808" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -56700,8 +56699,7 @@
       </c>
       <c r="D2817" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -57041,7 +57039,7 @@
       </c>
       <c r="D2834" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -57281,7 +57279,7 @@
       </c>
       <c r="D2846" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -57301,7 +57299,7 @@
       </c>
       <c r="D2847" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -57421,7 +57419,7 @@
       </c>
       <c r="D2853" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -57741,7 +57739,7 @@
       </c>
       <c r="D2869" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -57861,7 +57859,7 @@
       </c>
       <c r="D2875" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58241,7 +58239,7 @@
       </c>
       <c r="D2894" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -58481,7 +58479,7 @@
       </c>
       <c r="D2906" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58501,7 +58499,7 @@
       </c>
       <c r="D2907" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58521,7 +58519,7 @@
       </c>
       <c r="D2908" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58541,7 +58539,7 @@
       </c>
       <c r="D2909" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58741,7 +58739,7 @@
       </c>
       <c r="D2919" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58901,7 +58899,7 @@
       </c>
       <c r="D2927" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58921,7 +58919,7 @@
       </c>
       <c r="D2928" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -58981,7 +58979,7 @@
       </c>
       <c r="D2931" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -59481,8 +59479,7 @@
       </c>
       <c r="D2956" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -59982,7 +59979,7 @@
       </c>
       <c r="D2981" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -60182,7 +60179,7 @@
       </c>
       <c r="D2991" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -60722,7 +60719,7 @@
       </c>
       <c r="D3018" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -60862,7 +60859,7 @@
       </c>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61222,7 +61219,7 @@
       </c>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61402,7 +61399,7 @@
       </c>
       <c r="D3052" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61502,7 +61499,7 @@
       </c>
       <c r="D3057" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61542,7 +61539,7 @@
       </c>
       <c r="D3059" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61602,7 +61599,7 @@
       </c>
       <c r="D3062" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61662,7 +61659,7 @@
       </c>
       <c r="D3065" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -61922,7 +61919,7 @@
       </c>
       <c r="D3078" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -62022,7 +62019,7 @@
       </c>
       <c r="D3083" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -62122,7 +62119,7 @@
       </c>
       <c r="D3088" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -62202,7 +62199,7 @@
       </c>
       <c r="D3092" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -62502,7 +62499,7 @@
       </c>
       <c r="D3107" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -62702,7 +62699,7 @@
       </c>
       <c r="D3117" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63002,7 +62999,7 @@
       </c>
       <c r="D3132" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63102,7 +63099,7 @@
       </c>
       <c r="D3137" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63122,7 +63119,7 @@
       </c>
       <c r="D3138" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63362,8 +63359,7 @@
       </c>
       <c r="D3150" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -63543,7 +63539,7 @@
       </c>
       <c r="D3159" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63663,7 +63659,7 @@
       </c>
       <c r="D3165" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63683,7 +63679,7 @@
       </c>
       <c r="D3166" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63843,7 +63839,7 @@
       </c>
       <c r="D3174" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63863,7 +63859,7 @@
       </c>
       <c r="D3175" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -63923,7 +63919,7 @@
       </c>
       <c r="D3178" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64183,7 +64179,7 @@
       </c>
       <c r="D3191" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64283,7 +64279,7 @@
       </c>
       <c r="D3196" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64363,7 +64359,7 @@
       </c>
       <c r="D3200" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64503,7 +64499,7 @@
       </c>
       <c r="D3207" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64623,7 +64619,7 @@
       </c>
       <c r="D3213" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64843,7 +64839,7 @@
       </c>
       <c r="D3224" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64903,7 +64899,7 @@
       </c>
       <c r="D3227" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -64943,7 +64939,7 @@
       </c>
       <c r="D3229" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -65063,7 +65059,7 @@
       </c>
       <c r="D3235" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -65303,7 +65299,7 @@
       </c>
       <c r="D3247" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -65343,7 +65339,7 @@
       </c>
       <c r="D3249" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66103,7 +66099,7 @@
       </c>
       <c r="D3287" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66143,7 +66139,7 @@
       </c>
       <c r="D3289" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66463,7 +66459,7 @@
       </c>
       <c r="D3305" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66583,7 +66579,7 @@
       </c>
       <c r="D3311" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66663,7 +66659,7 @@
       </c>
       <c r="D3315" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66883,7 +66879,7 @@
       </c>
       <c r="D3326" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -66963,7 +66959,7 @@
       </c>
       <c r="D3330" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67043,7 +67039,7 @@
       </c>
       <c r="D3334" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67143,7 +67139,7 @@
       </c>
       <c r="D3339" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67223,7 +67219,7 @@
       </c>
       <c r="D3343" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67443,7 +67439,7 @@
       </c>
       <c r="D3354" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67544,7 +67540,7 @@
       </c>
       <c r="D3359" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -67906,7 +67902,7 @@
       </c>
       <c r="D3377" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -68667,8 +68663,7 @@
       </c>
       <c r="D3415" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -69008,7 +69003,7 @@
       </c>
       <c r="D3432" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69088,7 +69083,7 @@
       </c>
       <c r="D3436" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69188,7 +69183,7 @@
       </c>
       <c r="D3441" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69288,7 +69283,7 @@
       </c>
       <c r="D3446" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69448,7 +69443,7 @@
       </c>
       <c r="D3454" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69468,7 +69463,7 @@
       </c>
       <c r="D3455" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69508,7 +69503,7 @@
       </c>
       <c r="D3457" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -69728,7 +69723,7 @@
       </c>
       <c r="D3468" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -70008,7 +70003,7 @@
       </c>
       <c r="D3482" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -70088,7 +70083,7 @@
       </c>
       <c r="D3486" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -70108,7 +70103,7 @@
       </c>
       <c r="D3487" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -70248,7 +70243,7 @@
       </c>
       <c r="D3494" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -70468,8 +70463,7 @@
       </c>
       <c r="D3505" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -71129,7 +71123,7 @@
       </c>
       <c r="D3538" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71349,7 +71343,7 @@
       </c>
       <c r="D3549" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71469,8 +71463,7 @@
       </c>
       <c r="D3555" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -71570,7 +71563,7 @@
       </c>
       <c r="D3560" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71630,8 +71623,7 @@
       </c>
       <c r="D3563" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -71791,7 +71783,7 @@
       </c>
       <c r="D3571" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71911,7 +71903,7 @@
       </c>
       <c r="D3577" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71931,7 +71923,7 @@
       </c>
       <c r="D3578" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71951,7 +71943,7 @@
       </c>
       <c r="D3579" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -71991,7 +71983,7 @@
       </c>
       <c r="D3581" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -72031,7 +72023,7 @@
       </c>
       <c r="D3583" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -72312,8 +72304,7 @@
       </c>
       <c r="D3597" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -72373,7 +72364,7 @@
       </c>
       <c r="D3600" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -72733,7 +72724,7 @@
       </c>
       <c r="D3618" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -72773,7 +72764,7 @@
       </c>
       <c r="D3620" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -72853,7 +72844,7 @@
       </c>
       <c r="D3624" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -73053,7 +73044,7 @@
       </c>
       <c r="D3634" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -73153,8 +73144,7 @@
       </c>
       <c r="D3639" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -73174,7 +73164,7 @@
       </c>
       <c r="D3640" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -73494,8 +73484,7 @@
       </c>
       <c r="D3656" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -73717,7 +73706,7 @@
       </c>
       <c r="D3667" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -73998,7 +73987,7 @@
       </c>
       <c r="D3681" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -74058,7 +74047,7 @@
       </c>
       <c r="D3684" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -74138,8 +74127,7 @@
       </c>
       <c r="D3688" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -74259,7 +74247,7 @@
       </c>
       <c r="D3694" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -74279,8 +74267,7 @@
       </c>
       <c r="D3695" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -74320,8 +74307,7 @@
       </c>
       <c r="D3697" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -74584,7 +74570,7 @@
       </c>
       <c r="D3710" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -74704,8 +74690,7 @@
       </c>
       <c r="D3716" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -75127,7 +75112,7 @@
       </c>
       <c r="D3737" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -75147,7 +75132,7 @@
       </c>
       <c r="D3738" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -75567,7 +75552,7 @@
       </c>
       <c r="D3759" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -75788,8 +75773,7 @@
       </c>
       <c r="D3770" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -75809,7 +75793,7 @@
       </c>
       <c r="D3771" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -75849,8 +75833,7 @@
       </c>
       <c r="D3773" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -75950,7 +75933,7 @@
       </c>
       <c r="D3778" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -76051,7 +76034,7 @@
       </c>
       <c r="D3783" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -76071,7 +76054,7 @@
       </c>
       <c r="D3784" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -76272,7 +76255,7 @@
       </c>
       <c r="D3794" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -76592,7 +76575,7 @@
       </c>
       <c r="D3810" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -76632,8 +76615,7 @@
       </c>
       <c r="D3812" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -76854,7 +76836,7 @@
       </c>
       <c r="D3823" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -76894,7 +76876,7 @@
       </c>
       <c r="D3825" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -76934,8 +76916,7 @@
       </c>
       <c r="D3827" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -76995,7 +76976,7 @@
       </c>
       <c r="D3830" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77055,7 +77036,7 @@
       </c>
       <c r="D3833" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77236,7 +77217,7 @@
       </c>
       <c r="D3842" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77296,8 +77277,7 @@
       </c>
       <c r="D3845" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -77337,7 +77317,7 @@
       </c>
       <c r="D3847" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77377,7 +77357,7 @@
       </c>
       <c r="D3849" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77417,7 +77397,7 @@
       </c>
       <c r="D3851" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77617,7 +77597,7 @@
       </c>
       <c r="D3861" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -77939,7 +77919,7 @@
       </c>
       <c r="D3877" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -78239,7 +78219,7 @@
       </c>
       <c r="D3892" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -78319,7 +78299,7 @@
       </c>
       <c r="D3896" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -78339,8 +78319,7 @@
       </c>
       <c r="D3897" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -78461,8 +78440,7 @@
       </c>
       <c r="D3903" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -78562,8 +78540,7 @@
       </c>
       <c r="D3908" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -78705,7 +78682,7 @@
       </c>
       <c r="D3915" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -78785,8 +78762,7 @@
       </c>
       <c r="D3919" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -79087,7 +79063,7 @@
       </c>
       <c r="D3934" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -79267,7 +79243,7 @@
       </c>
       <c r="D3943" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -79407,7 +79383,7 @@
       </c>
       <c r="D3950" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -79507,7 +79483,7 @@
       </c>
       <c r="D3955" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -79668,7 +79644,7 @@
       </c>
       <c r="D3963" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -79688,7 +79664,7 @@
       </c>
       <c r="D3964" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -80112,7 +80088,7 @@
       </c>
       <c r="D3985" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -80474,7 +80450,7 @@
       </c>
       <c r="D4003" t="inlineStr">
         <is>
-          <t>quartz monzonite</t>
+          <t>quartz syenite</t>
         </is>
       </c>
     </row>
@@ -80575,8 +80551,7 @@
       </c>
       <c r="D4008" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -80676,7 +80651,7 @@
       </c>
       <c r="D4013" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -80797,7 +80772,7 @@
       </c>
       <c r="D4019" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -80858,7 +80833,7 @@
       </c>
       <c r="D4022" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -81019,7 +80994,7 @@
       </c>
       <c r="D4030" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -81079,7 +81054,7 @@
       </c>
       <c r="D4033" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -81140,7 +81115,7 @@
       </c>
       <c r="D4036" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -81301,7 +81276,7 @@
       </c>
       <c r="D4044" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -82029,8 +82004,7 @@
       </c>
       <c r="D4080" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82050,8 +82024,7 @@
       </c>
       <c r="D4081" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82173,8 +82146,7 @@
       </c>
       <c r="D4087" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82274,7 +82246,7 @@
       </c>
       <c r="D4092" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -82538,8 +82510,7 @@
       </c>
       <c r="D4105" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82619,7 +82590,7 @@
       </c>
       <c r="D4109" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -82700,7 +82671,7 @@
       </c>
       <c r="D4113" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -83126,8 +83097,7 @@
       </c>
       <c r="D4134" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -83249,8 +83219,7 @@
       </c>
       <c r="D4140" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -83391,7 +83360,7 @@
       </c>
       <c r="D4147" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -83677,7 +83646,7 @@
       </c>
       <c r="D4161" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -83778,8 +83747,7 @@
       </c>
       <c r="D4166" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -83965,7 +83933,7 @@
       </c>
       <c r="D4175" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -84067,8 +84035,7 @@
       </c>
       <c r="D4180" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -84108,7 +84075,7 @@
       </c>
       <c r="D4182" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -84148,7 +84115,7 @@
       </c>
       <c r="D4184" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -84228,8 +84195,7 @@
       </c>
       <c r="D4188" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -84391,8 +84357,7 @@
       </c>
       <c r="D4196" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -84412,8 +84377,7 @@
       </c>
       <c r="D4197" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -84473,7 +84437,7 @@
       </c>
       <c r="D4200" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -84898,8 +84862,7 @@
       </c>
       <c r="D4221" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -84999,8 +84962,7 @@
       </c>
       <c r="D4226" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -85426,8 +85388,7 @@
       </c>
       <c r="D4247" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -85468,8 +85429,7 @@
       </c>
       <c r="D4249" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -85695,8 +85655,7 @@
       </c>
       <c r="D4260" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -85880,7 +85839,7 @@
       </c>
       <c r="D4269" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -86086,8 +86045,7 @@
       </c>
       <c r="D4279" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -86391,7 +86349,7 @@
       </c>
       <c r="D4294" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -86576,8 +86534,7 @@
       </c>
       <c r="D4303" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -86718,7 +86675,7 @@
       </c>
       <c r="D4310" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -86818,7 +86775,7 @@
       </c>
       <c r="D4315" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -87204,8 +87161,7 @@
       </c>
       <c r="D4334" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -87225,8 +87181,7 @@
       </c>
       <c r="D4335" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -87309,8 +87264,7 @@
       </c>
       <c r="D4339" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -87720,8 +87674,7 @@
       </c>
       <c r="D4359" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -87824,8 +87777,7 @@
       </c>
       <c r="D4364" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -88031,8 +87983,7 @@
       </c>
       <c r="D4374" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -88583,7 +88534,7 @@
       </c>
       <c r="D4401" t="inlineStr">
         <is>
-          <t>monzodiorite monzogabbro</t>
+          <t>monzonite</t>
         </is>
       </c>
     </row>
@@ -89616,8 +89567,7 @@
       </c>
       <c r="D4451" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -90778,8 +90728,7 @@
       </c>
       <c r="D4507" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -91844,8 +91793,7 @@
       </c>
       <c r="D4558" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -92095,8 +92043,7 @@
       </c>
       <c r="D4570" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -92950,8 +92897,7 @@
       </c>
       <c r="D4611" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -93326,7 +93272,7 @@
       </c>
       <c r="D4629" t="inlineStr">
         <is>
-          <t>monzodiorite monzogabbro</t>
+          <t>monzonite</t>
         </is>
       </c>
     </row>
@@ -93428,344 +93374,343 @@
       </c>
       <c r="D4634" t="inlineStr">
         <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4635">
+      <c r="A4635" s="1" t="n">
+        <v>4634</v>
+      </c>
+      <c r="B4635" t="inlineStr">
+        <is>
+          <t>66°10'0.0"</t>
+        </is>
+      </c>
+      <c r="C4635" t="inlineStr">
+        <is>
+          <t>166°4'0.0"</t>
+        </is>
+      </c>
+      <c r="D4635" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4636">
+      <c r="A4636" s="1" t="n">
+        <v>4635</v>
+      </c>
+      <c r="B4636" t="inlineStr">
+        <is>
+          <t>63°24'10.0"</t>
+        </is>
+      </c>
+      <c r="C4636" t="inlineStr">
+        <is>
+          <t>165°15'45.0"</t>
+        </is>
+      </c>
+      <c r="D4636" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4637">
+      <c r="A4637" s="1" t="n">
+        <v>4636</v>
+      </c>
+      <c r="B4637" t="inlineStr">
+        <is>
+          <t>61°19'0.0"</t>
+        </is>
+      </c>
+      <c r="C4637" t="inlineStr">
+        <is>
+          <t>149°8'0.0"</t>
+        </is>
+      </c>
+      <c r="D4637" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4638">
+      <c r="A4638" s="1" t="n">
+        <v>4637</v>
+      </c>
+      <c r="B4638" t="inlineStr">
+        <is>
+          <t>65°12'0.0"</t>
+        </is>
+      </c>
+      <c r="C4638" t="inlineStr">
+        <is>
+          <t>159°59'0.0"</t>
+        </is>
+      </c>
+      <c r="D4638" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4639">
+      <c r="A4639" s="1" t="n">
+        <v>4638</v>
+      </c>
+      <c r="B4639" t="inlineStr">
+        <is>
+          <t>47°45'3.0"</t>
+        </is>
+      </c>
+      <c r="C4639" t="inlineStr">
+        <is>
+          <t>138°17'25.0"</t>
+        </is>
+      </c>
+      <c r="D4639" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4640">
+      <c r="A4640" s="1" t="n">
+        <v>4639</v>
+      </c>
+      <c r="B4640" t="inlineStr">
+        <is>
+          <t>64°1'0.0"</t>
+        </is>
+      </c>
+      <c r="C4640" t="inlineStr">
+        <is>
+          <t>164°59'0.0"</t>
+        </is>
+      </c>
+      <c r="D4640" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4641">
+      <c r="A4641" s="1" t="n">
+        <v>4640</v>
+      </c>
+      <c r="B4641" t="inlineStr">
+        <is>
+          <t>60°28'0.0"</t>
+        </is>
+      </c>
+      <c r="C4641" t="inlineStr">
+        <is>
+          <t>148°20'0.0"</t>
+        </is>
+      </c>
+      <c r="D4641" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4642">
+      <c r="A4642" s="1" t="n">
+        <v>4641</v>
+      </c>
+      <c r="B4642" t="inlineStr">
+        <is>
+          <t>55°3'0.0"</t>
+        </is>
+      </c>
+      <c r="C4642" t="inlineStr">
+        <is>
+          <t>130°51'0.0"</t>
+        </is>
+      </c>
+      <c r="D4642" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4643">
+      <c r="A4643" s="1" t="n">
+        <v>4642</v>
+      </c>
+      <c r="B4643" t="inlineStr">
+        <is>
+          <t>45°31'50.0"</t>
+        </is>
+      </c>
+      <c r="C4643" t="inlineStr">
+        <is>
+          <t>135°59'25.0"</t>
+        </is>
+      </c>
+      <c r="D4643" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4644">
+      <c r="A4644" s="1" t="n">
+        <v>4643</v>
+      </c>
+      <c r="B4644" t="inlineStr">
+        <is>
+          <t>66°44'0.0"</t>
+        </is>
+      </c>
+      <c r="C4644" t="inlineStr">
+        <is>
+          <t>178°22'0.0"WW</t>
+        </is>
+      </c>
+      <c r="D4644" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4645">
+      <c r="A4645" s="1" t="n">
+        <v>4644</v>
+      </c>
+      <c r="B4645" t="inlineStr">
+        <is>
+          <t>50°35'0.0"</t>
+        </is>
+      </c>
+      <c r="C4645" t="inlineStr">
+        <is>
+          <t>139°32'0.0"</t>
+        </is>
+      </c>
+      <c r="D4645" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4646">
+      <c r="A4646" s="1" t="n">
+        <v>4645</v>
+      </c>
+      <c r="B4646" t="inlineStr">
+        <is>
+          <t>69°32'0.0"</t>
+        </is>
+      </c>
+      <c r="C4646" t="inlineStr">
+        <is>
+          <t>150°22'0.0"</t>
+        </is>
+      </c>
+      <c r="D4646" t="inlineStr">
+        <is>
+          <t>monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="4647">
+      <c r="A4647" s="1" t="n">
+        <v>4646</v>
+      </c>
+      <c r="B4647" t="inlineStr">
+        <is>
+          <t>45°1'40.0"</t>
+        </is>
+      </c>
+      <c r="C4647" t="inlineStr">
+        <is>
+          <t>136°36'30.0"</t>
+        </is>
+      </c>
+      <c r="D4647" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4648">
+      <c r="A4648" s="1" t="n">
+        <v>4647</v>
+      </c>
+      <c r="B4648" t="inlineStr">
+        <is>
+          <t>65°41'0.0"</t>
+        </is>
+      </c>
+      <c r="C4648" t="inlineStr">
+        <is>
+          <t>177°58'0.0"WW</t>
+        </is>
+      </c>
+      <c r="D4648" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4649">
+      <c r="A4649" s="1" t="n">
+        <v>4648</v>
+      </c>
+      <c r="B4649" t="inlineStr">
+        <is>
+          <t>60°36'0.0"</t>
+        </is>
+      </c>
+      <c r="C4649" t="inlineStr">
+        <is>
+          <t>149°41'0.0"</t>
+        </is>
+      </c>
+      <c r="D4649" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4650">
+      <c r="A4650" s="1" t="n">
+        <v>4649</v>
+      </c>
+      <c r="B4650" t="inlineStr">
+        <is>
+          <t>51°7'0.0"</t>
+        </is>
+      </c>
+      <c r="C4650" t="inlineStr">
+        <is>
+          <t>134°27'0.0"</t>
+        </is>
+      </c>
+      <c r="D4650" t="inlineStr">
+        <is>
           <t>quartz diorite
 quartz gabbro
 quartz anorthosite</t>
         </is>
       </c>
     </row>
-    <row r="4635">
-      <c r="A4635" s="1" t="n">
-        <v>4634</v>
-      </c>
-      <c r="B4635" t="inlineStr">
-        <is>
-          <t>66°10'0.0"</t>
-        </is>
-      </c>
-      <c r="C4635" t="inlineStr">
-        <is>
-          <t>166°4'0.0"</t>
-        </is>
-      </c>
-      <c r="D4635" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4636">
-      <c r="A4636" s="1" t="n">
-        <v>4635</v>
-      </c>
-      <c r="B4636" t="inlineStr">
-        <is>
-          <t>63°24'10.0"</t>
-        </is>
-      </c>
-      <c r="C4636" t="inlineStr">
-        <is>
-          <t>165°15'45.0"</t>
-        </is>
-      </c>
-      <c r="D4636" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4637">
-      <c r="A4637" s="1" t="n">
-        <v>4636</v>
-      </c>
-      <c r="B4637" t="inlineStr">
-        <is>
-          <t>61°19'0.0"</t>
-        </is>
-      </c>
-      <c r="C4637" t="inlineStr">
-        <is>
-          <t>149°8'0.0"</t>
-        </is>
-      </c>
-      <c r="D4637" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4638">
-      <c r="A4638" s="1" t="n">
-        <v>4637</v>
-      </c>
-      <c r="B4638" t="inlineStr">
-        <is>
-          <t>65°12'0.0"</t>
-        </is>
-      </c>
-      <c r="C4638" t="inlineStr">
-        <is>
-          <t>159°59'0.0"</t>
-        </is>
-      </c>
-      <c r="D4638" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4639">
-      <c r="A4639" s="1" t="n">
-        <v>4638</v>
-      </c>
-      <c r="B4639" t="inlineStr">
-        <is>
-          <t>47°45'3.0"</t>
-        </is>
-      </c>
-      <c r="C4639" t="inlineStr">
-        <is>
-          <t>138°17'25.0"</t>
-        </is>
-      </c>
-      <c r="D4639" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4640">
-      <c r="A4640" s="1" t="n">
-        <v>4639</v>
-      </c>
-      <c r="B4640" t="inlineStr">
-        <is>
-          <t>64°1'0.0"</t>
-        </is>
-      </c>
-      <c r="C4640" t="inlineStr">
-        <is>
-          <t>164°59'0.0"</t>
-        </is>
-      </c>
-      <c r="D4640" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4641">
-      <c r="A4641" s="1" t="n">
-        <v>4640</v>
-      </c>
-      <c r="B4641" t="inlineStr">
-        <is>
-          <t>60°28'0.0"</t>
-        </is>
-      </c>
-      <c r="C4641" t="inlineStr">
-        <is>
-          <t>148°20'0.0"</t>
-        </is>
-      </c>
-      <c r="D4641" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4642">
-      <c r="A4642" s="1" t="n">
-        <v>4641</v>
-      </c>
-      <c r="B4642" t="inlineStr">
-        <is>
-          <t>55°3'0.0"</t>
-        </is>
-      </c>
-      <c r="C4642" t="inlineStr">
-        <is>
-          <t>130°51'0.0"</t>
-        </is>
-      </c>
-      <c r="D4642" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4643">
-      <c r="A4643" s="1" t="n">
-        <v>4642</v>
-      </c>
-      <c r="B4643" t="inlineStr">
-        <is>
-          <t>45°31'50.0"</t>
-        </is>
-      </c>
-      <c r="C4643" t="inlineStr">
-        <is>
-          <t>135°59'25.0"</t>
-        </is>
-      </c>
-      <c r="D4643" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4644">
-      <c r="A4644" s="1" t="n">
-        <v>4643</v>
-      </c>
-      <c r="B4644" t="inlineStr">
-        <is>
-          <t>66°44'0.0"</t>
-        </is>
-      </c>
-      <c r="C4644" t="inlineStr">
-        <is>
-          <t>178°22'0.0"WW</t>
-        </is>
-      </c>
-      <c r="D4644" t="inlineStr">
-        <is>
-          <t>monzodiorite monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4645">
-      <c r="A4645" s="1" t="n">
-        <v>4644</v>
-      </c>
-      <c r="B4645" t="inlineStr">
-        <is>
-          <t>50°35'0.0"</t>
-        </is>
-      </c>
-      <c r="C4645" t="inlineStr">
-        <is>
-          <t>139°32'0.0"</t>
-        </is>
-      </c>
-      <c r="D4645" t="inlineStr">
-        <is>
-          <t>monzodiorite monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4646">
-      <c r="A4646" s="1" t="n">
-        <v>4645</v>
-      </c>
-      <c r="B4646" t="inlineStr">
-        <is>
-          <t>69°32'0.0"</t>
-        </is>
-      </c>
-      <c r="C4646" t="inlineStr">
-        <is>
-          <t>150°22'0.0"</t>
-        </is>
-      </c>
-      <c r="D4646" t="inlineStr">
-        <is>
-          <t>monzodiorite monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4647">
-      <c r="A4647" s="1" t="n">
-        <v>4646</v>
-      </c>
-      <c r="B4647" t="inlineStr">
-        <is>
-          <t>45°1'40.0"</t>
-        </is>
-      </c>
-      <c r="C4647" t="inlineStr">
-        <is>
-          <t>136°36'30.0"</t>
-        </is>
-      </c>
-      <c r="D4647" t="inlineStr">
-        <is>
-          <t>monzodiorite monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4648">
-      <c r="A4648" s="1" t="n">
-        <v>4647</v>
-      </c>
-      <c r="B4648" t="inlineStr">
-        <is>
-          <t>65°41'0.0"</t>
-        </is>
-      </c>
-      <c r="C4648" t="inlineStr">
-        <is>
-          <t>177°58'0.0"WW</t>
-        </is>
-      </c>
-      <c r="D4648" t="inlineStr">
-        <is>
-          <t>monzodiorite monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4649">
-      <c r="A4649" s="1" t="n">
-        <v>4648</v>
-      </c>
-      <c r="B4649" t="inlineStr">
-        <is>
-          <t>60°36'0.0"</t>
-        </is>
-      </c>
-      <c r="C4649" t="inlineStr">
-        <is>
-          <t>149°41'0.0"</t>
-        </is>
-      </c>
-      <c r="D4649" t="inlineStr">
-        <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4650">
-      <c r="A4650" s="1" t="n">
-        <v>4649</v>
-      </c>
-      <c r="B4650" t="inlineStr">
-        <is>
-          <t>51°7'0.0"</t>
-        </is>
-      </c>
-      <c r="C4650" t="inlineStr">
-        <is>
-          <t>134°27'0.0"</t>
-        </is>
-      </c>
-      <c r="D4650" t="inlineStr">
-        <is>
-          <t>quartz diorite
-quartz gabbro
-quartz anorthosite</t>
-        </is>
-      </c>
-    </row>
     <row r="4651">
       <c r="A4651" s="1" t="n">
         <v>4650</v>
@@ -93963,7 +93908,7 @@
       </c>
       <c r="D4660" t="inlineStr">
         <is>
-          <t>diorite gabbro anorthosite</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>

--- a/_CIPW/CIPW/1_normalized_QAPF_plot.xlsx
+++ b/_CIPW/CIPW/1_normalized_QAPF_plot.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -45379,7 +45379,7 @@
       </c>
       <c r="D2251" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -47099,7 +47099,7 @@
       </c>
       <c r="D2337" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -48819,7 +48819,7 @@
       </c>
       <c r="D2423" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -52459,7 +52459,7 @@
       </c>
       <c r="D2605" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -52899,7 +52899,7 @@
       </c>
       <c r="D2627" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -53159,7 +53159,7 @@
       </c>
       <c r="D2640" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -54539,7 +54539,7 @@
       </c>
       <c r="D2709" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -55019,7 +55019,7 @@
       </c>
       <c r="D2733" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -55639,7 +55639,7 @@
       </c>
       <c r="D2764" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -58899,7 +58899,7 @@
       </c>
       <c r="D2927" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -58919,7 +58919,7 @@
       </c>
       <c r="D2928" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -62579,7 +62579,7 @@
       </c>
       <c r="D3111" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -63659,7 +63659,7 @@
       </c>
       <c r="D3165" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -63839,7 +63839,7 @@
       </c>
       <c r="D3174" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -63859,7 +63859,7 @@
       </c>
       <c r="D3175" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -64939,7 +64939,7 @@
       </c>
       <c r="D3229" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -65459,7 +65459,7 @@
       </c>
       <c r="D3255" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -67119,7 +67119,8 @@
       </c>
       <c r="D3338" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -67399,7 +67400,7 @@
       </c>
       <c r="D3352" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -67982,7 +67983,7 @@
       </c>
       <c r="D3381" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -68583,7 +68584,8 @@
       </c>
       <c r="D3411" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -70343,7 +70345,8 @@
       </c>
       <c r="D3499" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -70463,7 +70466,8 @@
       </c>
       <c r="D3505" t="inlineStr">
         <is>
-          <t>quartz monzonite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -70763,7 +70767,7 @@
       </c>
       <c r="D3520" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -71123,7 +71127,7 @@
       </c>
       <c r="D3538" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -71563,7 +71567,7 @@
       </c>
       <c r="D3560" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -72384,7 +72388,7 @@
       </c>
       <c r="D3601" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -72644,7 +72648,7 @@
       </c>
       <c r="D3614" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -73846,7 +73850,8 @@
       </c>
       <c r="D3674" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -73987,7 +73992,7 @@
       </c>
       <c r="D3681" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -75692,7 +75697,7 @@
       </c>
       <c r="D3766" t="inlineStr">
         <is>
-          <t>quartz monzonite</t>
+          <t>monzonite</t>
         </is>
       </c>
     </row>
@@ -76034,7 +76039,7 @@
       </c>
       <c r="D3783" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -76796,7 +76801,8 @@
       </c>
       <c r="D3821" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -76936,7 +76942,8 @@
       </c>
       <c r="D3828" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -77818,7 +77825,7 @@
       </c>
       <c r="D3872" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -77838,7 +77845,8 @@
       </c>
       <c r="D3873" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -78219,7 +78227,8 @@
       </c>
       <c r="D3892" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -78299,7 +78308,7 @@
       </c>
       <c r="D3896" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -78682,7 +78691,7 @@
       </c>
       <c r="D3915" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -79263,7 +79272,7 @@
       </c>
       <c r="D3944" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -80350,7 +80359,7 @@
       </c>
       <c r="D3998" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -80470,7 +80479,7 @@
       </c>
       <c r="D4004" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -80813,7 +80822,8 @@
       </c>
       <c r="D4021" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -80994,7 +81004,7 @@
       </c>
       <c r="D4030" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -81660,7 +81670,7 @@
       </c>
       <c r="D4063" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82186,7 +82196,7 @@
       </c>
       <c r="D4089" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -82590,7 +82600,7 @@
       </c>
       <c r="D4109" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -83137,7 +83147,8 @@
       </c>
       <c r="D4136" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -83953,7 +83964,7 @@
       </c>
       <c r="D4176" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -85186,7 +85197,8 @@
       </c>
       <c r="D4237" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -85839,7 +85851,7 @@
       </c>
       <c r="D4269" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -85942,7 +85954,7 @@
       </c>
       <c r="D4274" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -86045,7 +86057,8 @@
       </c>
       <c r="D4279" t="inlineStr">
         <is>
-          <t>quartz monzonite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -86675,7 +86688,7 @@
       </c>
       <c r="D4310" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
@@ -86775,7 +86788,7 @@
       </c>
       <c r="D4315" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -86877,7 +86890,7 @@
       </c>
       <c r="D4320" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
@@ -87409,7 +87422,8 @@
       </c>
       <c r="D4346" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -87553,7 +87567,8 @@
       </c>
       <c r="D4353" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -88105,7 +88120,8 @@
       </c>
       <c r="D4380" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -88268,7 +88284,8 @@
       </c>
       <c r="D4388" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -88967,7 +88984,8 @@
       </c>
       <c r="D4422" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -89505,7 +89523,8 @@
       </c>
       <c r="D4448" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -90501,7 +90520,8 @@
       </c>
       <c r="D4496" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
@@ -90624,8 +90644,7 @@
       </c>
       <c r="D4502" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
@@ -92002,8 +92021,7 @@
       </c>
       <c r="D4568" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
@@ -92751,8 +92769,7 @@
       </c>
       <c r="D4604" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
@@ -93500,8 +93517,7 @@
       </c>
       <c r="D4640" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
@@ -93542,8 +93558,7 @@
       </c>
       <c r="D4642" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
